--- a/Exams/Exam-02/CheckList.xlsx
+++ b/Exams/Exam-02/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Documents\Exams\Solutions\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DEDBF6-5D3A-4024-886A-749FC770F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D9921-4ABC-495C-AA4B-B50F32F2F81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -259,9 +259,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,8 +286,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,17 +673,17 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -698,6 +695,7 @@
       <c r="C3" s="9">
         <v>0.2</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -709,6 +707,7 @@
       <c r="C4" s="9">
         <v>0.2</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -720,6 +719,7 @@
       <c r="C5" s="9">
         <v>0.2</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -731,6 +731,7 @@
       <c r="C6" s="9">
         <v>0.2</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -742,25 +743,26 @@
       <c r="C7" s="9">
         <v>0.2</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -769,39 +771,43 @@
       <c r="C10" s="9">
         <v>0.2</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <v>0.2</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
         <v>0.2</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9">
         <v>0.2</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -813,6 +819,7 @@
       <c r="C14" s="9">
         <v>0.2</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -824,6 +831,7 @@
       <c r="C15" s="9">
         <v>0.2</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -835,50 +843,54 @@
       <c r="C16" s="9">
         <v>0.2</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9">
         <v>0.2</v>
       </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="9">
         <v>0.2</v>
       </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9">
         <v>0.2</v>
       </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -887,91 +899,99 @@
       <c r="C21" s="9">
         <v>0.2</v>
       </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22" s="9">
         <v>0.2</v>
       </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23" s="9">
         <v>0.2</v>
       </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" s="9">
         <v>0.2</v>
       </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" s="9">
         <v>0.2</v>
       </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26" s="9">
         <v>0.2</v>
       </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="9">
         <v>0.2</v>
       </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C28" s="9">
         <v>0.2</v>
       </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -983,6 +1003,7 @@
       <c r="C30" s="9">
         <v>0.2</v>
       </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -994,6 +1015,7 @@
       <c r="C31" s="9">
         <v>0.2</v>
       </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -1021,7 +1043,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B21 B26:B31">
+  <conditionalFormatting sqref="B21:B31">
     <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1029,19 +1051,11 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20">
+  <conditionalFormatting sqref="B20">
     <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
       <formula>"No"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1061,15 +1075,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B10:B19">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1077,19 +1083,11 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B3:B4 B10 B14:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B28 B3:B4 B10:B19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7 B11:B13 B22:B31 B17:B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7 B20 B29:B31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>
